--- a/input/raw_MH_file_rankings.xlsx
+++ b/input/raw_MH_file_rankings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpatterson\PyProjects\sealed_MH\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsp52\AnacondaProjects\sealed_MH\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF3B8F8-5EC3-426A-A1C7-77D2216DDB9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEBB02A-5103-4A9A-A9CD-5248DC0D8836}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="737">
   <si>
     <t>number</t>
   </si>
@@ -2476,6 +2476,9 @@
   </si>
   <si>
     <t>floor_rating</t>
+  </si>
+  <si>
+    <t>basic</t>
   </si>
 </sst>
 </file>
@@ -2880,18 +2883,18 @@
   <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L251" sqref="L251:L255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4663,7 +4666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6543,7 +6546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6965,7 +6968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7381,7 +7384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7463,7 +7466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7671,7 +7674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7715,7 +7718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7759,7 +7762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8081,7 +8084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8163,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8327,7 +8330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8371,7 +8374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8623,7 +8626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8743,7 +8746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8869,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9039,7 +9042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9153,7 +9156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9241,7 +9244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9323,7 +9326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9361,7 +9364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9449,7 +9452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9493,7 +9496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9528,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9610,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9654,7 +9657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9780,7 +9783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9862,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9906,7 +9909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9950,7 +9953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10082,7 +10085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10126,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10618,7 +10621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10738,7 +10741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10782,7 +10785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10864,7 +10867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10902,7 +10905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10990,7 +10993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11104,7 +11107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11236,7 +11239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11280,7 +11283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11324,7 +11327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11368,7 +11371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11450,7 +11453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11538,7 +11541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11620,7 +11623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11658,7 +11661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11702,7 +11705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11790,7 +11793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11878,7 +11881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11919,7 +11922,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11957,7 +11960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11995,7 +11998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12033,7 +12036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12071,7 +12074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12153,7 +12156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12241,7 +12244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12276,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12320,7 +12323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12396,7 +12399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12434,7 +12437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12472,7 +12475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12510,7 +12513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12548,7 +12551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12586,7 +12589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12630,7 +12633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12700,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12735,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12770,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12805,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12840,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12980,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13050,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13085,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13120,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13146,7 +13149,7 @@
         <v>696</v>
       </c>
       <c r="L251" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="M251" t="s">
         <v>716</v>
@@ -13155,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13181,7 +13184,7 @@
         <v>697</v>
       </c>
       <c r="L252" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="M252" t="s">
         <v>718</v>
@@ -13190,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13216,7 +13219,7 @@
         <v>698</v>
       </c>
       <c r="L253" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="M253" t="s">
         <v>720</v>
@@ -13225,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13251,7 +13254,7 @@
         <v>699</v>
       </c>
       <c r="L254" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="M254" t="s">
         <v>722</v>
@@ -13260,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>700</v>
       </c>
       <c r="L255" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="M255" t="s">
         <v>723</v>
